--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2623247.008023466</v>
+        <v>2620379.457850241</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587976</v>
+        <v>8444421.38171573</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9344922.696785921</v>
+        <v>9344902.278457424</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>266.5469181787403</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.1960097880556</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>58.48269361864183</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.3289799064248</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.28367916400425</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>327.1387951101884</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>115.4685441446654</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>75.93999108643294</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.77238941128158</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7806877295491</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1407479991916</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.8423545290289</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1585,13 +1585,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>205.5261888872237</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>112.663985957359</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>264.9282693816759</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>7.043238784029326</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>93.16964177522034</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>84.10895172234474</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>114.4746605491553</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>7.601081015447107</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>225.4855267871097</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5805435513399</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I26" t="n">
-        <v>7.594561284788199</v>
+        <v>7.081331206015278</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.10156188094702</v>
+        <v>88.79820333299195</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273043</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392683</v>
+        <v>84.97321768248372</v>
       </c>
       <c r="I27" t="n">
-        <v>2.579389070766737</v>
+        <v>2.334151821525907</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515018</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>82.59906062573945</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>82.17814641706217</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>70.88542329426741</v>
       </c>
       <c r="S28" t="n">
-        <v>182.8784344308283</v>
+        <v>182.7743669785567</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513399</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284788199</v>
+        <v>7.081331206015278</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10156188094702</v>
+        <v>88.79820333299195</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273043</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392683</v>
+        <v>84.97321768248372</v>
       </c>
       <c r="I30" t="n">
-        <v>2.579389070766737</v>
+        <v>2.334151821525907</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515018</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>60.15304657567997</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>79.78010175533876</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2396273813004</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898788</v>
+        <v>84.28234746703987</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.15392492125495</v>
+        <v>70.88542329426741</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308283</v>
+        <v>182.7743669785567</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I32" t="n">
-        <v>7.594561284787829</v>
+        <v>7.081331206015278</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.1015618809468</v>
+        <v>88.79820333299195</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392678</v>
+        <v>84.97321768248372</v>
       </c>
       <c r="I33" t="n">
-        <v>2.579389070766567</v>
+        <v>2.334151821525907</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.3833537044361</v>
+        <v>119.2510505515018</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>27.82820923485983</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.15392492125477</v>
+        <v>70.88542329426741</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785567</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>153.506646676651</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>9.434273714503092</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>105.3798824585326</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127575</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045442</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081952</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876462</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.272790488245014</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919538</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440892</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108345</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627617</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>193.0900789498611</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417104</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127575</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
         <v>283.5630920045443</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081953</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876462</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>81.37259901119374</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108346</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627617</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
         <v>286.1854515484204</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>175.2996980526262</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>105.3798824585323</v>
       </c>
       <c r="I46" t="n">
-        <v>41.74133133759014</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1152.132006003442</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1152.132006003442</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1152.132006003442</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.132006003442</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>741.1461012138345</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>323.1822931120214</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304455</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X2" t="n">
-        <v>1928.871178043375</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1538.731846067564</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>411.0461427127113</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>260.9295033003756</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>113.0164097179825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>113.0164097179825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999326</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>81.15903730168839</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>74.21353655248491</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>60.29013249107582</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>60.29013249107582</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>611.4940911310146</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V7" t="n">
-        <v>611.4940911310146</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W7" t="n">
-        <v>611.4940911310146</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X7" t="n">
-        <v>383.5045402329973</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5045402329973</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2669.096172420968</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2669.096172420968</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2669.096172420968</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2669.096172420968</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2338.033285077397</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,13 +4887,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5045,22 +5045,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.8948606428723</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8948606428723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5203,10 +5203,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W13" t="n">
-        <v>999.1036114208126</v>
+        <v>874.5404723472669</v>
       </c>
       <c r="X13" t="n">
-        <v>771.1140605227953</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.3214813792652</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5282,19 +5282,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1741.136558882383</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5361,7 +5361,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>692.8920075170271</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C16" t="n">
-        <v>523.9558245891202</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715858</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,16 +5449,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
         <v>1674.827124689058</v>
@@ -5470,16 +5470,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384227</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W16" t="n">
-        <v>874.5404723472668</v>
+        <v>641.6688416715965</v>
       </c>
       <c r="X16" t="n">
-        <v>874.5404723472668</v>
+        <v>413.6792907735792</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.5404723472668</v>
+        <v>192.8867116300491</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1034.340101969334</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3888.072124968687</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,16 +5543,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5595,10 +5595,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>825.8595573777149</v>
+        <v>560.8310435707792</v>
       </c>
       <c r="C19" t="n">
-        <v>656.923374449808</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5692,31 +5692,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1866.513008862232</v>
+        <v>1445.946126648453</v>
       </c>
       <c r="V19" t="n">
-        <v>1611.828520656345</v>
+        <v>1191.261638442566</v>
       </c>
       <c r="W19" t="n">
-        <v>1322.411350619384</v>
+        <v>1191.261638442566</v>
       </c>
       <c r="X19" t="n">
-        <v>1228.300601351485</v>
+        <v>963.2720875445491</v>
       </c>
       <c r="Y19" t="n">
-        <v>1007.508022207955</v>
+        <v>742.479508401019</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>425.7583423057191</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>425.7583423057191</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5938,22 +5938,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>874.5404723472666</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>646.5509214492492</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>425.7583423057191</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5993,40 +5993,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3189.3614801067</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6069,10 +6069,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736755</v>
+        <v>242.4509819463047</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736755</v>
+        <v>242.4509819463047</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736755</v>
+        <v>242.4509819463047</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736755</v>
+        <v>242.4509819463046</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1948.665606493141</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T25" t="n">
-        <v>1726.898991062667</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U25" t="n">
-        <v>1437.79612418831</v>
+        <v>1416.983235060939</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.111635982423</v>
+        <v>1162.298746855053</v>
       </c>
       <c r="W25" t="n">
-        <v>893.6944659454628</v>
+        <v>872.8815768180918</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474454</v>
+        <v>644.8920259200745</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039153</v>
+        <v>424.0994467765444</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.482124425631</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485219</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878469</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906168</v>
+        <v>803.7890349610739</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760578</v>
+        <v>389.620392314182</v>
       </c>
       <c r="H26" t="n">
-        <v>101.8324663696538</v>
+        <v>101.2929105653984</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J26" t="n">
-        <v>357.1047532886061</v>
+        <v>358.2021945153788</v>
       </c>
       <c r="K26" t="n">
-        <v>801.9275083030676</v>
+        <v>804.7014151994176</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.671231675071</v>
+        <v>1395.524942477767</v>
       </c>
       <c r="M26" t="n">
-        <v>2378.953612054113</v>
+        <v>2369.178015211316</v>
       </c>
       <c r="N26" t="n">
-        <v>3081.440188028842</v>
+        <v>3074.016219660731</v>
       </c>
       <c r="O26" t="n">
-        <v>3731.443080300298</v>
+        <v>3726.239688016501</v>
       </c>
       <c r="P26" t="n">
-        <v>4251.704509646628</v>
+        <v>4248.396327675949</v>
       </c>
       <c r="Q26" t="n">
-        <v>4594.226429670196</v>
+        <v>4592.341471716698</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.00253806713</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.05803957324</v>
+        <v>4617.30738318532</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223258</v>
+        <v>4415.286052936301</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.51859734033</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996759</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465565</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.081964489753</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.7138223180872</v>
+        <v>947.3682853256661</v>
       </c>
       <c r="C27" t="n">
-        <v>773.2607930369602</v>
+        <v>772.9152560445391</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757089</v>
+        <v>623.9808463832878</v>
       </c>
       <c r="E27" t="n">
-        <v>465.0889283702534</v>
+        <v>464.7433913778324</v>
       </c>
       <c r="F27" t="n">
-        <v>318.5543703971383</v>
+        <v>318.2088334047174</v>
       </c>
       <c r="G27" t="n">
-        <v>182.667655117033</v>
+        <v>182.3293128866049</v>
       </c>
       <c r="H27" t="n">
-        <v>96.76663585044022</v>
+        <v>96.49777987399504</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J27" t="n">
-        <v>231.9507289421372</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="K27" t="n">
-        <v>545.6098185067148</v>
+        <v>408.9378168618752</v>
       </c>
       <c r="L27" t="n">
-        <v>1013.685713517273</v>
+        <v>878.5448029964375</v>
       </c>
       <c r="M27" t="n">
-        <v>1579.265073453199</v>
+        <v>1445.910874057173</v>
       </c>
       <c r="N27" t="n">
-        <v>2174.222281028467</v>
+        <v>2036.04279313642</v>
       </c>
       <c r="O27" t="n">
-        <v>2343.037460732812</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="P27" t="n">
-        <v>2343.037460732812</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="Q27" t="n">
-        <v>2560.279010110499</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110499</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044422</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>474.6011738263139</v>
+        <v>811.4116150799085</v>
       </c>
       <c r="C28" t="n">
-        <v>391.1677792548599</v>
+        <v>642.4754321520016</v>
       </c>
       <c r="D28" t="n">
-        <v>241.0511398425242</v>
+        <v>492.3587927396659</v>
       </c>
       <c r="E28" t="n">
-        <v>241.0511398425256</v>
+        <v>344.4456991572728</v>
       </c>
       <c r="F28" t="n">
-        <v>94.16119234461523</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="G28" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="H28" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603205</v>
+        <v>167.3552671573049</v>
       </c>
       <c r="K28" t="n">
-        <v>416.4235264532467</v>
+        <v>417.5071952352234</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371883</v>
+        <v>793.1419734834344</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649981</v>
+        <v>1199.58530235842</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.004967408912</v>
+        <v>1601.798933740119</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740131</v>
+        <v>1957.292026969324</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.612518185968</v>
+        <v>2237.957099327613</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.000352396749</v>
+        <v>2348.839967262883</v>
       </c>
       <c r="R28" t="n">
-        <v>2343.000352396749</v>
+        <v>2277.238529591906</v>
       </c>
       <c r="S28" t="n">
-        <v>2158.274661052478</v>
+        <v>2092.617956886293</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.214509174213</v>
+        <v>1872.583577444214</v>
       </c>
       <c r="U28" t="n">
-        <v>1649.133426940949</v>
+        <v>1583.502824220773</v>
       </c>
       <c r="V28" t="n">
-        <v>1394.448938735062</v>
+        <v>1328.818336014886</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.031768698101</v>
+        <v>1039.401165977926</v>
       </c>
       <c r="X28" t="n">
-        <v>877.0422178000838</v>
+        <v>811.4116150799085</v>
       </c>
       <c r="Y28" t="n">
-        <v>656.2496386565537</v>
+        <v>811.4116150799085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.482124425629</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.519607485218</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280223</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F29" t="n">
-        <v>804.4797514906159</v>
+        <v>803.7890349610739</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760576</v>
+        <v>389.620392314182</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8324663696538</v>
+        <v>101.2929105653984</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J29" t="n">
-        <v>357.104753288606</v>
+        <v>432.5889754481466</v>
       </c>
       <c r="K29" t="n">
-        <v>801.9275083030675</v>
+        <v>879.0881961321855</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.671231675071</v>
+        <v>1469.911723410535</v>
       </c>
       <c r="M29" t="n">
-        <v>2378.953612054112</v>
+        <v>2158.98617445801</v>
       </c>
       <c r="N29" t="n">
-        <v>3081.440188028841</v>
+        <v>2863.824378907425</v>
       </c>
       <c r="O29" t="n">
-        <v>3731.443080300297</v>
+        <v>3516.047847263195</v>
       </c>
       <c r="P29" t="n">
-        <v>4251.704509646627</v>
+        <v>4038.204486922643</v>
       </c>
       <c r="Q29" t="n">
-        <v>4594.226429670195</v>
+        <v>4592.341471716698</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.00253806713</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.30738318532</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223256</v>
+        <v>4415.286052936301</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.518597340328</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.455709996757</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726643</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465563</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.081964489751</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.7138223180872</v>
+        <v>947.3682853256661</v>
       </c>
       <c r="C30" t="n">
-        <v>773.2607930369602</v>
+        <v>772.9152560445391</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757089</v>
+        <v>623.9808463832878</v>
       </c>
       <c r="E30" t="n">
-        <v>465.0889283702534</v>
+        <v>464.7433913778324</v>
       </c>
       <c r="F30" t="n">
-        <v>318.5543703971383</v>
+        <v>318.2088334047174</v>
       </c>
       <c r="G30" t="n">
-        <v>182.667655117033</v>
+        <v>182.3293128866049</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585044021</v>
+        <v>96.49777987399504</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J30" t="n">
-        <v>94.16119234461522</v>
+        <v>232.5958076174681</v>
       </c>
       <c r="K30" t="n">
-        <v>407.8202819091928</v>
+        <v>547.3935737180007</v>
       </c>
       <c r="L30" t="n">
-        <v>875.896176919751</v>
+        <v>1017.000559852563</v>
       </c>
       <c r="M30" t="n">
-        <v>1441.475536855677</v>
+        <v>1584.366630913299</v>
       </c>
       <c r="N30" t="n">
-        <v>2036.432744430945</v>
+        <v>1584.366630913299</v>
       </c>
       <c r="O30" t="n">
-        <v>2558.482559838427</v>
+        <v>1911.338811047603</v>
       </c>
       <c r="P30" t="n">
-        <v>2560.279010110499</v>
+        <v>2312.34329008322</v>
       </c>
       <c r="Q30" t="n">
-        <v>2560.279010110499</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110499</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044422</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>402.7285223907031</v>
+        <v>408.9705711061382</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7285223907031</v>
+        <v>240.0343881782313</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7285223907031</v>
+        <v>179.2737350714839</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7285223907031</v>
+        <v>179.2737350714839</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7285223907031</v>
+        <v>179.2737350714839</v>
       </c>
       <c r="G31" t="n">
-        <v>322.1425610216741</v>
+        <v>179.2737350714839</v>
       </c>
       <c r="H31" t="n">
-        <v>179.4762707375323</v>
+        <v>179.2737350714839</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603205</v>
+        <v>167.3552671573049</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532466</v>
+        <v>417.5071952352234</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371882</v>
+        <v>793.1419734834344</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649981</v>
+        <v>1199.58530235842</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408912</v>
+        <v>1601.798933740119</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.66245274013</v>
+        <v>1957.292026969323</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.612518185968</v>
+        <v>2237.957099327613</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396749</v>
+        <v>2348.839967262883</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.127700961138</v>
+        <v>2277.238529591906</v>
       </c>
       <c r="S31" t="n">
-        <v>2086.402009616867</v>
+        <v>2092.617956886293</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.341857738602</v>
+        <v>1872.583577444214</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.260775505338</v>
+        <v>1583.502824220773</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.576287299451</v>
+        <v>1328.818336014886</v>
       </c>
       <c r="W31" t="n">
-        <v>1033.15911726249</v>
+        <v>1039.401165977925</v>
       </c>
       <c r="X31" t="n">
-        <v>805.169566364473</v>
+        <v>811.4116150799081</v>
       </c>
       <c r="Y31" t="n">
-        <v>584.3769872209429</v>
+        <v>590.6190359363779</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.48212442563</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485219</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878468</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906168</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760576</v>
+        <v>389.6203923141825</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8324663696534</v>
+        <v>101.2929105653984</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J32" t="n">
-        <v>357.1047532886068</v>
+        <v>358.2021945153788</v>
       </c>
       <c r="K32" t="n">
-        <v>1103.449620215746</v>
+        <v>1089.280036885491</v>
       </c>
       <c r="L32" t="n">
-        <v>1692.19334358775</v>
+        <v>1680.10356416384</v>
       </c>
       <c r="M32" t="n">
-        <v>2378.953612054107</v>
+        <v>2369.178015211316</v>
       </c>
       <c r="N32" t="n">
-        <v>3081.440188028838</v>
+        <v>3074.016219660731</v>
       </c>
       <c r="O32" t="n">
-        <v>3731.443080300295</v>
+        <v>3726.239688016501</v>
       </c>
       <c r="P32" t="n">
-        <v>4251.704509646626</v>
+        <v>4248.396327675949</v>
       </c>
       <c r="Q32" t="n">
-        <v>4594.226429670195</v>
+        <v>4592.341471716698</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.00253806713</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.518597340329</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996758</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465564</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.081964489752</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.7138223180867</v>
+        <v>947.3682853256661</v>
       </c>
       <c r="C33" t="n">
-        <v>773.2607930369597</v>
+        <v>772.9152560445391</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757085</v>
+        <v>623.9808463832878</v>
       </c>
       <c r="E33" t="n">
-        <v>465.088928370253</v>
+        <v>464.7433913778324</v>
       </c>
       <c r="F33" t="n">
-        <v>318.554370397138</v>
+        <v>318.2088334047174</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170327</v>
+        <v>182.3293128866049</v>
       </c>
       <c r="H33" t="n">
-        <v>96.76663585044003</v>
+        <v>96.49777987399504</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J33" t="n">
-        <v>231.9507289421376</v>
+        <v>232.5958076174681</v>
       </c>
       <c r="K33" t="n">
-        <v>545.6098185067159</v>
+        <v>547.3935737180007</v>
       </c>
       <c r="L33" t="n">
-        <v>1013.685713517275</v>
+        <v>1017.000559852563</v>
       </c>
       <c r="M33" t="n">
-        <v>1579.265073453203</v>
+        <v>1387.611243893755</v>
       </c>
       <c r="N33" t="n">
-        <v>2174.222281028472</v>
+        <v>1387.611243893755</v>
       </c>
       <c r="O33" t="n">
-        <v>2174.222281028472</v>
+        <v>1911.338811047603</v>
       </c>
       <c r="P33" t="n">
-        <v>2343.03746073281</v>
+        <v>2312.34329008322</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044422</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308641</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.3769872209465</v>
+        <v>702.6954822823815</v>
       </c>
       <c r="C34" t="n">
-        <v>584.3769872209465</v>
+        <v>533.7592993544746</v>
       </c>
       <c r="D34" t="n">
-        <v>584.3769872209465</v>
+        <v>383.6426599421388</v>
       </c>
       <c r="E34" t="n">
-        <v>436.4638936385535</v>
+        <v>383.6426599421388</v>
       </c>
       <c r="F34" t="n">
-        <v>289.5739461406431</v>
+        <v>236.7527124442285</v>
       </c>
       <c r="G34" t="n">
-        <v>122.2704946020494</v>
+        <v>236.7527124442285</v>
       </c>
       <c r="H34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134262</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134262</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603206</v>
+        <v>167.3552671573049</v>
       </c>
       <c r="K34" t="n">
-        <v>416.4235264532472</v>
+        <v>417.5071952352234</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371894</v>
+        <v>793.1419734834344</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649982</v>
+        <v>1199.58530235842</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408914</v>
+        <v>1601.798933740119</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740133</v>
+        <v>1957.292026969324</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.957099327613</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262883</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.127700961142</v>
+        <v>2277.238529591906</v>
       </c>
       <c r="S34" t="n">
-        <v>2086.402009616871</v>
+        <v>2092.617956886293</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.341857738606</v>
+        <v>1872.583577444214</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.260775505342</v>
+        <v>1583.502824220773</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.576287299455</v>
+        <v>1328.818336014886</v>
       </c>
       <c r="W34" t="n">
-        <v>1033.159117262494</v>
+        <v>1039.401165977925</v>
       </c>
       <c r="X34" t="n">
-        <v>805.1695663644766</v>
+        <v>884.3439471126212</v>
       </c>
       <c r="Y34" t="n">
-        <v>584.3769872209465</v>
+        <v>884.3439471126212</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6923,16 +6923,16 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
         <v>373.34422365072</v>
@@ -6950,37 +6950,37 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160701</v>
+        <v>238.7141959544597</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2380436180322</v>
+        <v>729.446528798211</v>
       </c>
       <c r="M36" t="n">
-        <v>965.25639787016</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.352361269496</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149475998</v>
+        <v>495.0957149476</v>
       </c>
       <c r="C37" t="n">
-        <v>485.5661455390108</v>
+        <v>495.0957149476</v>
       </c>
       <c r="D37" t="n">
-        <v>485.5661455390108</v>
+        <v>495.0957149476</v>
       </c>
       <c r="E37" t="n">
-        <v>485.5661455390108</v>
+        <v>347.1826213652069</v>
       </c>
       <c r="F37" t="n">
-        <v>485.5661455390108</v>
+        <v>200.2926738672965</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135897</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
         <v>172.8304710411609</v>
@@ -7111,10 +7111,10 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R37" t="n">
         <v>2361.553154294196</v>
@@ -7135,10 +7135,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213697</v>
+        <v>897.5367589213698</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778396</v>
+        <v>676.7441797778397</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
         <v>1949.298676890958</v>
@@ -7160,16 +7160,16 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
         <v>373.34422365072</v>
@@ -7187,19 +7187,19 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P38" t="n">
         <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
@@ -7245,34 +7245,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K39" t="n">
-        <v>93.84834815160701</v>
+        <v>107.3505653988748</v>
       </c>
       <c r="L39" t="n">
-        <v>142.676769632785</v>
+        <v>107.3505653988748</v>
       </c>
       <c r="M39" t="n">
-        <v>734.6951238849127</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N39" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>930.4858260316499</v>
+        <v>495.0957149476003</v>
       </c>
       <c r="C40" t="n">
-        <v>930.4858260316499</v>
+        <v>493.8100679897771</v>
       </c>
       <c r="D40" t="n">
-        <v>780.369186619314</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="E40" t="n">
-        <v>632.4560930369209</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="F40" t="n">
-        <v>485.5661455390107</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135895</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520201</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117248</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948591</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931026</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294197</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033127</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747509</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062236</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856349</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
         <v>1125.526309819388</v>
       </c>
       <c r="X40" t="n">
-        <v>930.4858260316499</v>
+        <v>897.5367589213702</v>
       </c>
       <c r="Y40" t="n">
-        <v>930.4858260316499</v>
+        <v>676.74417977784</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
         <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
-        <v>893.7741287892006</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.293909294975</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234013</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151119</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610257</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P41" t="n">
         <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
@@ -7451,10 +7451,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J42" t="n">
-        <v>241.496329903453</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0050724668117</v>
+        <v>425.3961232894884</v>
       </c>
       <c r="L42" t="n">
-        <v>1062.737405310563</v>
+        <v>916.1284561332398</v>
       </c>
       <c r="M42" t="n">
-        <v>1654.755759562691</v>
+        <v>1508.146810385368</v>
       </c>
       <c r="N42" t="n">
-        <v>1654.755759562691</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284443</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476009</v>
+        <v>721.9880822788405</v>
       </c>
       <c r="C43" t="n">
-        <v>326.159532019694</v>
+        <v>553.0518993509336</v>
       </c>
       <c r="D43" t="n">
-        <v>176.0428926073583</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E43" t="n">
-        <v>176.0428926073583</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160701</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160701</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117243</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948587</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
         <v>1239.450608139318</v>
@@ -7582,37 +7582,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
         <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033126</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747509</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062235</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856348</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819388</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213705</v>
+        <v>1080.70694918244</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778405</v>
+        <v>903.6365471090802</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.8451947151</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.57949610835</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510106</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720498</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399037</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556113</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148068</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112162</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436023</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118415</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459573</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171646</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798344</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955892</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.86483750223</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596215</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578421</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.84418457021</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226639</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956525</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695445</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719633</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814816</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003546</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391034</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.8059044336479</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2713464605329</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160701</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K45" t="n">
-        <v>119.3219818740134</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L45" t="n">
-        <v>119.3219818740134</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M45" t="n">
-        <v>716.7004695005653</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.298433055172</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.208163294459</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372036</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166503</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.9309895913067</v>
+        <v>495.0957149475997</v>
       </c>
       <c r="C46" t="n">
-        <v>580.9309895913067</v>
+        <v>495.0957149475997</v>
       </c>
       <c r="D46" t="n">
-        <v>430.814350178971</v>
+        <v>495.0957149475997</v>
       </c>
       <c r="E46" t="n">
-        <v>282.901256596578</v>
+        <v>347.1826213652066</v>
       </c>
       <c r="F46" t="n">
-        <v>136.0113090986678</v>
+        <v>200.2926738672962</v>
       </c>
       <c r="G46" t="n">
-        <v>136.0113090986678</v>
+        <v>200.2926738672962</v>
       </c>
       <c r="H46" t="n">
-        <v>136.0113090986678</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.084366581931</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074697</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834099</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956997</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.994768683896</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.139934338801</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.538469361742</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.463242705941</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.778754500054</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.361584463094</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3720335650763</v>
+        <v>897.5367589213697</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5794544215463</v>
+        <v>676.7441797778393</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,25 +8693,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>57.67224444723735</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,22 +8930,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792135</v>
+        <v>185.3870697685873</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>251.1867816683982</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>189.7998007892645</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>136.2499899971297</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9641,22 +9641,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>139.3563597571375</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>304.5677898107953</v>
+        <v>287.4531532182565</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>75.13816255835138</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>304.5677898107944</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>304.5677898107841</v>
+        <v>287.4531532182563</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>51.31264782908875</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>51.31264782908875</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>51.31264782908949</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.98962565290842</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>20.18346650181343</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>35.95148706085332</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>21.59472895491511</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>279.1685994215836</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>132.5400136138168</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>64.5065212958676</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>182.1679443159948</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>60.72631141850314</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>84.64776047288838</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>63.24290160586908</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813004</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898788</v>
+        <v>84.28234746703987</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.15392492125495</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>88.46242644253238</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>85.85031526786952</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H34" t="n">
-        <v>113.4114181464405</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>84.46192760898775</v>
+        <v>84.28234746703987</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>72.20300871238612</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>157.8125473841247</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>60.16217041863433</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>165.9740306103828</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>32.61957643917606</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>64.0484490117375</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771668</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919538</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.80457674440902</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>43.28495529946864</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26026,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462238</v>
+        <v>35.07410733342164</v>
       </c>
       <c r="I46" t="n">
-        <v>39.52450498097529</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791582.4465088228</v>
+        <v>791528.7750836283</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791582.4465088228</v>
+        <v>791528.7750836283</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791582.4465088228</v>
+        <v>791528.7750836281</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>790788.2394957488</v>
+        <v>790788.2394957487</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>790788.2394957489</v>
+        <v>790788.2394957488</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>790788.2394957488</v>
+        <v>790788.2394957489</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>790627.59848783</v>
+        <v>790788.2394957488</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="F2" t="n">
         <v>615476.7696748236</v>
       </c>
-      <c r="F2" t="n">
-        <v>615476.7696748235</v>
-      </c>
       <c r="G2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="H2" t="n">
         <v>615476.7696748237</v>
       </c>
-      <c r="H2" t="n">
-        <v>615476.7696748236</v>
-      </c>
       <c r="I2" t="n">
-        <v>615476.7696748234</v>
+        <v>615476.7696748233</v>
       </c>
       <c r="J2" t="n">
-        <v>623407.0139118111</v>
+        <v>623526.7830761019</v>
       </c>
       <c r="K2" t="n">
-        <v>623407.0139118111</v>
+        <v>623526.7830761019</v>
       </c>
       <c r="L2" t="n">
-        <v>623407.0139118115</v>
+        <v>623526.7830761019</v>
       </c>
       <c r="M2" t="n">
-        <v>625179.3072668834</v>
+        <v>625179.3072668836</v>
       </c>
       <c r="N2" t="n">
-        <v>625179.3072668834</v>
+        <v>625179.3072668837</v>
       </c>
       <c r="O2" t="n">
-        <v>625179.3072668834</v>
+        <v>625179.3072668836</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625179.3072668836</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>3.304588805022804e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.3250733732</v>
+        <v>336433.9864356444</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.4787408577</v>
+        <v>160866.4619420239</v>
       </c>
       <c r="N3" t="n">
-        <v>7.39614084263199e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
-      <c r="D4" t="n">
-        <v>192206.5963924298</v>
-      </c>
       <c r="E4" t="n">
-        <v>21619.60799709181</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>8092.872670013926</v>
+        <v>7888.580768453773</v>
       </c>
       <c r="K4" t="n">
-        <v>8092.872670013914</v>
+        <v>7888.580768453769</v>
       </c>
       <c r="L4" t="n">
-        <v>8092.872670013792</v>
+        <v>7888.580768453771</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662891</v>
+        <v>5069.915760662892</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662949</v>
+        <v>5069.915760662901</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.91576066295</v>
+        <v>5069.915760662955</v>
       </c>
       <c r="P4" t="n">
-        <v>4457.648636658129</v>
+        <v>5069.915760662911</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26491,13 +26491,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
@@ -26509,7 +26509,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>361241.6971889804</v>
       </c>
       <c r="D6" t="n">
-        <v>361241.6971889804</v>
+        <v>361241.6971889803</v>
       </c>
       <c r="E6" t="n">
-        <v>-229903.7705693886</v>
+        <v>-229970.9660596143</v>
       </c>
       <c r="F6" t="n">
-        <v>497473.643424018</v>
+        <v>497406.4479337923</v>
       </c>
       <c r="G6" t="n">
-        <v>497473.6434240182</v>
+        <v>497406.4479337925</v>
       </c>
       <c r="H6" t="n">
-        <v>497473.6434240181</v>
+        <v>497406.4479337924</v>
       </c>
       <c r="I6" t="n">
-        <v>497473.6434240179</v>
+        <v>497406.447933792</v>
       </c>
       <c r="J6" t="n">
-        <v>181161.2573190932</v>
+        <v>179007.3065724226</v>
       </c>
       <c r="K6" t="n">
-        <v>515214.5823924664</v>
+        <v>515441.293008067</v>
       </c>
       <c r="L6" t="n">
-        <v>515214.5823924653</v>
+        <v>515441.293008067</v>
       </c>
       <c r="M6" t="n">
-        <v>356049.8733081244</v>
+        <v>358276.993125094</v>
       </c>
       <c r="N6" t="n">
-        <v>519179.3520489818</v>
+        <v>519143.455067118</v>
       </c>
       <c r="O6" t="n">
-        <v>519179.3520489819</v>
+        <v>519143.4550671178</v>
       </c>
       <c r="P6" t="n">
-        <v>513322.2230454742</v>
+        <v>519143.4550671179</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26759,13 +26759,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184551</v>
+        <v>1312.35059705965</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184551</v>
+        <v>1312.35059705965</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184553</v>
+        <v>1312.35059705965</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26777,7 +26777,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26811,13 +26811,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="M4" t="n">
         <v>1173.104351895088</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.130736006278505e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26981,16 +26981,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2624125912525</v>
+        <v>222.5738964663517</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.00193553183271</v>
+        <v>45.69045165673583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573156</v>
+        <v>656.5249766664078</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377722</v>
+        <v>516.5793752286799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.130736006278505e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>57.37585458561682</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>158.0449589293574</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>108.8271086404091</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>201.7061255516595</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>145.647637080857</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>22.10217360722464</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>170.8133300973123</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.21032716693568</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>306.7938505770476</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>26.70601316353015</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>46.8347852886633</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.99689532463643</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.322462139796698e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-5.666578317686799e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.245176053289987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="G41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.262468796721809</v>
+        <v>5.275781294712157</v>
       </c>
       <c r="H26" t="n">
-        <v>53.89425856442723</v>
+        <v>54.03059518447089</v>
       </c>
       <c r="I26" t="n">
-        <v>202.8813282856177</v>
+        <v>203.3945583643906</v>
       </c>
       <c r="J26" t="n">
-        <v>446.645461035768</v>
+        <v>447.7753426620764</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010023</v>
+        <v>671.0991648672421</v>
       </c>
       <c r="L26" t="n">
-        <v>830.4570446386775</v>
+        <v>832.5578566652894</v>
       </c>
       <c r="M26" t="n">
-        <v>924.0434741023789</v>
+        <v>926.3810322651267</v>
       </c>
       <c r="N26" t="n">
-        <v>938.9954635710649</v>
+        <v>941.3708458687277</v>
       </c>
       <c r="O26" t="n">
-        <v>886.6667894736623</v>
+        <v>888.9097956194336</v>
       </c>
       <c r="P26" t="n">
-        <v>756.7495910545925</v>
+        <v>758.6639449062271</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.2874272719926</v>
+        <v>569.7250272893478</v>
       </c>
       <c r="R26" t="n">
-        <v>330.5685555520766</v>
+        <v>331.4047967539628</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052983</v>
+        <v>120.2218662532534</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764973</v>
+        <v>23.09473261760248</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377446</v>
+        <v>0.4220625035769724</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906392</v>
+        <v>2.822791850279247</v>
       </c>
       <c r="H27" t="n">
-        <v>27.19343516256964</v>
+        <v>27.26222655401273</v>
       </c>
       <c r="I27" t="n">
-        <v>96.94299092923326</v>
+        <v>97.18822817847409</v>
       </c>
       <c r="J27" t="n">
-        <v>266.0189767651737</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>454.668802170902</v>
+        <v>455.8189804900485</v>
       </c>
       <c r="L27" t="n">
-        <v>611.3583141339735</v>
+        <v>612.9048708248866</v>
       </c>
       <c r="M27" t="n">
-        <v>713.4263166855801</v>
+        <v>715.2310753975091</v>
       </c>
       <c r="N27" t="n">
-        <v>732.3085884219876</v>
+        <v>727.4345596381272</v>
       </c>
       <c r="O27" t="n">
-        <v>313.1166279841866</v>
+        <v>671.6139890442909</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.4176825483318</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>52.2998173994016</v>
+        <v>52.43212055233598</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279813</v>
+        <v>11.37783206318696</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412101</v>
+        <v>0.1857099901499505</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.360562335250829</v>
+        <v>2.366533863550188</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613921</v>
+        <v>21.0406374413826</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827041</v>
+        <v>71.16812746021841</v>
       </c>
       <c r="J28" t="n">
-        <v>166.8917571022336</v>
+        <v>167.3139441529983</v>
       </c>
       <c r="K28" t="n">
-        <v>274.2544240409599</v>
+        <v>274.9482070561036</v>
       </c>
       <c r="L28" t="n">
-        <v>350.9512402790188</v>
+        <v>351.8390436772708</v>
       </c>
       <c r="M28" t="n">
-        <v>370.028875879364</v>
+        <v>370.964940083599</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661567</v>
+        <v>362.1442229558213</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589082</v>
+        <v>334.4988046407122</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197911</v>
+        <v>286.2215138242881</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908672</v>
+        <v>198.1649401560071</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559145</v>
+        <v>106.4079680829021</v>
       </c>
       <c r="S28" t="n">
-        <v>41.13816360614398</v>
+        <v>41.24223105841554</v>
       </c>
       <c r="T28" t="n">
-        <v>10.08603906879899</v>
+        <v>10.11155378062353</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591363</v>
+        <v>0.1290836652845559</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.262468796721809</v>
+        <v>5.275781294712157</v>
       </c>
       <c r="H29" t="n">
-        <v>53.89425856442723</v>
+        <v>54.03059518447089</v>
       </c>
       <c r="I29" t="n">
-        <v>202.8813282856177</v>
+        <v>203.3945583643906</v>
       </c>
       <c r="J29" t="n">
-        <v>446.645461035768</v>
+        <v>447.7753426620764</v>
       </c>
       <c r="K29" t="n">
-        <v>669.4057652010023</v>
+        <v>671.0991648672421</v>
       </c>
       <c r="L29" t="n">
-        <v>830.4570446386775</v>
+        <v>832.5578566652894</v>
       </c>
       <c r="M29" t="n">
-        <v>924.0434741023789</v>
+        <v>926.3810322651267</v>
       </c>
       <c r="N29" t="n">
-        <v>938.9954635710649</v>
+        <v>941.3708458687277</v>
       </c>
       <c r="O29" t="n">
-        <v>886.6667894736623</v>
+        <v>888.9097956194336</v>
       </c>
       <c r="P29" t="n">
-        <v>756.7495910545925</v>
+        <v>758.6639449062271</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.2874272719926</v>
+        <v>569.7250272893478</v>
       </c>
       <c r="R29" t="n">
-        <v>330.5685555520766</v>
+        <v>331.4047967539628</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052983</v>
+        <v>120.2218662532534</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764973</v>
+        <v>23.09473261760248</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377446</v>
+        <v>0.4220625035769724</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906392</v>
+        <v>2.822791850279247</v>
       </c>
       <c r="H30" t="n">
-        <v>27.19343516256964</v>
+        <v>27.26222655401273</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923326</v>
+        <v>97.18822817847409</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>266.6919265213389</v>
       </c>
       <c r="K30" t="n">
-        <v>454.668802170902</v>
+        <v>455.8189804900485</v>
       </c>
       <c r="L30" t="n">
-        <v>611.3583141339735</v>
+        <v>612.9048708248866</v>
       </c>
       <c r="M30" t="n">
-        <v>713.4263166855801</v>
+        <v>715.2310753975091</v>
       </c>
       <c r="N30" t="n">
-        <v>732.3085884219876</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>669.9192903105881</v>
+        <v>472.8711738730349</v>
       </c>
       <c r="P30" t="n">
-        <v>135.7890036487464</v>
+        <v>539.0294367432363</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.326903554944</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375133</v>
       </c>
       <c r="S30" t="n">
-        <v>52.2998173994016</v>
+        <v>52.43212055233598</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279813</v>
+        <v>11.37783206318696</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412101</v>
+        <v>0.1857099901499505</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.360562335250829</v>
+        <v>2.366533863550188</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613921</v>
+        <v>21.0406374413826</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98854731827041</v>
+        <v>71.16812746021841</v>
       </c>
       <c r="J31" t="n">
-        <v>166.8917571022336</v>
+        <v>167.3139441529983</v>
       </c>
       <c r="K31" t="n">
-        <v>274.2544240409599</v>
+        <v>274.9482070561036</v>
       </c>
       <c r="L31" t="n">
-        <v>350.9512402790188</v>
+        <v>351.8390436772708</v>
       </c>
       <c r="M31" t="n">
-        <v>370.028875879364</v>
+        <v>370.964940083599</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661567</v>
+        <v>362.1442229558213</v>
       </c>
       <c r="O31" t="n">
-        <v>333.6547562589082</v>
+        <v>334.4988046407122</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197911</v>
+        <v>286.2215138242881</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.6649060908672</v>
+        <v>198.1649401560071</v>
       </c>
       <c r="R31" t="n">
-        <v>106.1394664559145</v>
+        <v>106.4079680829021</v>
       </c>
       <c r="S31" t="n">
-        <v>41.13816360614398</v>
+        <v>41.24223105841554</v>
       </c>
       <c r="T31" t="n">
-        <v>10.08603906879899</v>
+        <v>10.11155378062353</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591363</v>
+        <v>0.1290836652845559</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.262468796721818</v>
+        <v>5.275781294712157</v>
       </c>
       <c r="H32" t="n">
-        <v>53.89425856442733</v>
+        <v>54.03059518447089</v>
       </c>
       <c r="I32" t="n">
-        <v>202.8813282856181</v>
+        <v>203.3945583643906</v>
       </c>
       <c r="J32" t="n">
-        <v>446.6454610357688</v>
+        <v>447.7753426620764</v>
       </c>
       <c r="K32" t="n">
-        <v>669.4057652010034</v>
+        <v>671.0991648672421</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4570446386789</v>
+        <v>832.5578566652894</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0434741023805</v>
+        <v>926.3810322651267</v>
       </c>
       <c r="N32" t="n">
-        <v>938.9954635710665</v>
+        <v>941.3708458687277</v>
       </c>
       <c r="O32" t="n">
-        <v>886.6667894736638</v>
+        <v>888.9097956194336</v>
       </c>
       <c r="P32" t="n">
-        <v>756.7495910545938</v>
+        <v>758.6639449062271</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719936</v>
+        <v>569.7250272893478</v>
       </c>
       <c r="R32" t="n">
-        <v>330.5685555520772</v>
+        <v>331.4047967539628</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052985</v>
+        <v>120.2218662532534</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764977</v>
+        <v>23.09473261760248</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377453</v>
+        <v>0.4220625035769724</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.815669035906397</v>
+        <v>2.822791850279247</v>
       </c>
       <c r="H33" t="n">
-        <v>27.19343516256968</v>
+        <v>27.26222655401273</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923343</v>
+        <v>97.18822817847409</v>
       </c>
       <c r="J33" t="n">
-        <v>266.0189767651742</v>
+        <v>266.6919265213389</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6688021709028</v>
+        <v>455.8189804900485</v>
       </c>
       <c r="L33" t="n">
-        <v>611.3583141339747</v>
+        <v>612.9048708248866</v>
       </c>
       <c r="M33" t="n">
-        <v>713.4263166855814</v>
+        <v>516.4882602262533</v>
       </c>
       <c r="N33" t="n">
-        <v>732.3085884219888</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>671.6139890442909</v>
       </c>
       <c r="P33" t="n">
-        <v>304.4947909540659</v>
+        <v>539.0294367432363</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.4176825483324</v>
+        <v>360.326903554944</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375133</v>
       </c>
       <c r="S33" t="n">
-        <v>52.29981739940169</v>
+        <v>52.43212055233598</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279815</v>
+        <v>11.37783206318696</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412104</v>
+        <v>0.1857099901499505</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360562335250833</v>
+        <v>2.366533863550188</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613924</v>
+        <v>21.0406374413826</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98854731827053</v>
+        <v>71.16812746021841</v>
       </c>
       <c r="J34" t="n">
-        <v>166.8917571022339</v>
+        <v>167.3139441529983</v>
       </c>
       <c r="K34" t="n">
-        <v>274.2544240409604</v>
+        <v>274.9482070561036</v>
       </c>
       <c r="L34" t="n">
-        <v>350.9512402790194</v>
+        <v>351.8390436772708</v>
       </c>
       <c r="M34" t="n">
-        <v>370.0288758793646</v>
+        <v>370.964940083599</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661573</v>
+        <v>362.1442229558213</v>
       </c>
       <c r="O34" t="n">
-        <v>333.6547562589088</v>
+        <v>334.4988046407122</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197916</v>
+        <v>286.2215138242881</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.6649060908675</v>
+        <v>198.1649401560071</v>
       </c>
       <c r="R34" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829021</v>
       </c>
       <c r="S34" t="n">
-        <v>41.13816360614405</v>
+        <v>41.24223105841554</v>
       </c>
       <c r="T34" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062353</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1290836652845559</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,22 +33731,22 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>283.1210503161066</v>
       </c>
       <c r="L36" t="n">
-        <v>420.7661933823238</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426205</v>
@@ -33755,10 +33755,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33968,16 +33968,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>150.4305144013743</v>
       </c>
       <c r="L39" t="n">
-        <v>187.8760176396499</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>740.1323715504302</v>
@@ -33995,7 +33995,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34205,10 +34205,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>471.6886536848224</v>
@@ -34220,19 +34220,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>366.5958444985324</v>
       </c>
       <c r="O42" t="n">
-        <v>394.0223077997498</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S42" t="n">
         <v>54.25758340862161</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>163.5723821283049</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>159.4963216193744</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35413,25 +35413,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>513.2623588395695</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35650,22 +35650,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502535</v>
+        <v>640.9771841609195</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>588.3780682237987</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>588.5617870086363</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>675.1711058273564</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36361,22 +36361,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>691.658195170049</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.5995565090817</v>
+        <v>266.7294381353901</v>
       </c>
       <c r="K26" t="n">
-        <v>449.3159141560217</v>
+        <v>451.0093138222615</v>
       </c>
       <c r="L26" t="n">
-        <v>594.6906296686902</v>
+        <v>596.7914416953022</v>
       </c>
       <c r="M26" t="n">
-        <v>998.2650306859015</v>
+        <v>983.4879522561105</v>
       </c>
       <c r="N26" t="n">
-        <v>709.5823999744739</v>
+        <v>711.9577822721367</v>
       </c>
       <c r="O26" t="n">
-        <v>656.5685780519756</v>
+        <v>658.8115841977468</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993229</v>
+        <v>527.4309491509575</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.981737397543</v>
+        <v>347.4193374148983</v>
       </c>
       <c r="R26" t="n">
-        <v>114.9830177379445</v>
+        <v>115.8192589398307</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.181350098507</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>316.827363196543</v>
+        <v>317.9775415156895</v>
       </c>
       <c r="L27" t="n">
-        <v>472.8039343540993</v>
+        <v>474.3504910450125</v>
       </c>
       <c r="M27" t="n">
-        <v>571.2922827635618</v>
+        <v>573.0970414754909</v>
       </c>
       <c r="N27" t="n">
-        <v>600.9668763386543</v>
+        <v>596.0928475547939</v>
       </c>
       <c r="O27" t="n">
-        <v>170.5203835397421</v>
+        <v>529.0177445998464</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.4359084623103</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556084</v>
+        <v>73.95476403632551</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150771</v>
+        <v>252.6787152302208</v>
       </c>
       <c r="L28" t="n">
-        <v>378.541265539335</v>
+        <v>379.4290689375869</v>
       </c>
       <c r="M28" t="n">
-        <v>409.6127528412046</v>
+        <v>410.5488170454396</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453852</v>
+        <v>406.2763953350499</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729479</v>
+        <v>359.0839325547519</v>
       </c>
       <c r="P28" t="n">
-        <v>282.7778438846846</v>
+        <v>283.5000730891816</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.5028628391728</v>
+        <v>112.0028969043127</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>265.5995565090817</v>
+        <v>341.8676006937415</v>
       </c>
       <c r="K29" t="n">
-        <v>449.3159141560217</v>
+        <v>451.0093138222615</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686902</v>
+        <v>596.7914416953022</v>
       </c>
       <c r="M29" t="n">
-        <v>998.2650306859006</v>
+        <v>696.034799037854</v>
       </c>
       <c r="N29" t="n">
-        <v>709.5823999744739</v>
+        <v>711.9577822721367</v>
       </c>
       <c r="O29" t="n">
-        <v>656.5685780519756</v>
+        <v>658.8115841977468</v>
       </c>
       <c r="P29" t="n">
-        <v>525.5165952993229</v>
+        <v>527.4309491509575</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.981737397543</v>
+        <v>559.734328074803</v>
       </c>
       <c r="R29" t="n">
-        <v>114.9830177379445</v>
+        <v>115.8192589398307</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>139.8542998546722</v>
       </c>
       <c r="K30" t="n">
-        <v>316.827363196543</v>
+        <v>317.9775415156895</v>
       </c>
       <c r="L30" t="n">
-        <v>472.8039343540993</v>
+        <v>474.3504910450125</v>
       </c>
       <c r="M30" t="n">
-        <v>571.2922827635618</v>
+        <v>573.0970414754909</v>
       </c>
       <c r="N30" t="n">
-        <v>600.9668763386543</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>527.3230458661436</v>
+        <v>330.2749294285905</v>
       </c>
       <c r="P30" t="n">
-        <v>1.814596234416141</v>
+        <v>405.055029328906</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.3451294689224</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.58120407354937</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556084</v>
+        <v>73.95476403632551</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150771</v>
+        <v>252.6787152302208</v>
       </c>
       <c r="L31" t="n">
-        <v>378.541265539335</v>
+        <v>379.4290689375869</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412046</v>
+        <v>410.5488170454396</v>
       </c>
       <c r="N31" t="n">
-        <v>405.3625886453852</v>
+        <v>406.2763953350499</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729479</v>
+        <v>359.0839325547519</v>
       </c>
       <c r="P31" t="n">
-        <v>282.7778438846846</v>
+        <v>283.5000730891816</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.5028628391728</v>
+        <v>112.0028969043127</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>265.5995565090825</v>
+        <v>266.7294381353901</v>
       </c>
       <c r="K32" t="n">
-        <v>753.8837039668069</v>
+        <v>738.4624670405178</v>
       </c>
       <c r="L32" t="n">
-        <v>594.6906296686916</v>
+        <v>596.7914416953022</v>
       </c>
       <c r="M32" t="n">
-        <v>693.6972408751078</v>
+        <v>696.034799037854</v>
       </c>
       <c r="N32" t="n">
-        <v>709.5823999744755</v>
+        <v>711.9577822721367</v>
       </c>
       <c r="O32" t="n">
-        <v>656.5685780519771</v>
+        <v>658.8115841977468</v>
       </c>
       <c r="P32" t="n">
-        <v>525.5165952993243</v>
+        <v>527.4309491509575</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.9817373975441</v>
+        <v>347.4193374148983</v>
       </c>
       <c r="R32" t="n">
-        <v>114.983017737945</v>
+        <v>115.8192589398307</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.1813500985075</v>
+        <v>139.8542998546722</v>
       </c>
       <c r="K33" t="n">
-        <v>316.8273631965438</v>
+        <v>317.9775415156895</v>
       </c>
       <c r="L33" t="n">
-        <v>472.8039343541005</v>
+        <v>474.3504910450125</v>
       </c>
       <c r="M33" t="n">
-        <v>571.292282763563</v>
+        <v>374.3542263042349</v>
       </c>
       <c r="N33" t="n">
-        <v>600.9668763386555</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>529.0177445998464</v>
       </c>
       <c r="P33" t="n">
-        <v>170.5203835397357</v>
+        <v>405.055029328906</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.4359084623109</v>
+        <v>220.3451294689224</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.58120407354937</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53257698556112</v>
+        <v>73.95476403632551</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150775</v>
+        <v>252.6787152302208</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393355</v>
+        <v>379.4290689375869</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412052</v>
+        <v>410.5488170454396</v>
       </c>
       <c r="N34" t="n">
-        <v>405.3625886453859</v>
+        <v>406.2763953350499</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729485</v>
+        <v>359.0839325547519</v>
       </c>
       <c r="P34" t="n">
-        <v>282.7778438846851</v>
+        <v>283.5000730891816</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.5028628391731</v>
+        <v>112.0028969043127</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>741.0722806160973</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
         <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R35" t="n">
         <v>127.3573607845842</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>145.2796113417475</v>
       </c>
       <c r="L36" t="n">
-        <v>282.2118136024496</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>552.4004797981761</v>
@@ -37403,10 +37403,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,10 +37555,10 @@
         <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>741.0722806160973</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q38" t="n">
         <v>367.2547334404112</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>12.58907542701531</v>
       </c>
       <c r="L39" t="n">
-        <v>49.3216378597757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284119</v>
@@ -37643,7 +37643,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066062</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642058</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L40" t="n">
-        <v>391.6786041243781</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883429</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606361</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P40" t="n">
-        <v>293.465085693136</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q40" t="n">
         <v>118.9021551044799</v>
@@ -37780,13 +37780,13 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>525.6867728671521</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
         <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N41" t="n">
         <v>744.73230092637</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>333.8472147104634</v>
@@ -37868,19 +37868,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>235.2541324151991</v>
       </c>
       <c r="O42" t="n">
-        <v>251.4260633553054</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066061</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642058</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243781</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
         <v>423.4642343883428</v>
@@ -37953,7 +37953,7 @@
         <v>370.729754560636</v>
       </c>
       <c r="P43" t="n">
-        <v>293.465085693136</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
         <v>118.9021551044799</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>25.73094315394588</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>25.52191420504412</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629535</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096351</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
